--- a/Sprint-Backlog-Tuan04.xlsx
+++ b/Sprint-Backlog-Tuan04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -34,18 +34,16 @@
     <t xml:space="preserve">Sprint Review and results </t>
   </si>
   <si>
-    <t>Hoàn thiện website.
-Hoàn thiện poster.
-Làm demo sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task 1: Bổ sung website: Các chức năng về thương mại của trang web                           </t>
+    <t>Làm website nêu quy trình cũ, giải pháp và sản phẩm. Làm poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 1: Trang chủ +  Giới thiệu                                 </t>
   </si>
   <si>
     <t>Ny</t>
   </si>
   <si>
-    <t>Doing</t>
+    <t>Done 100%</t>
   </si>
   <si>
     <t>6 days</t>
@@ -54,7 +52,7 @@
     <t>https://github.com/nmcntt2-cntn2016/project1-DoTa</t>
   </si>
   <si>
-    <t>Task 2: Bổ sung website: quy trình cũ. Hoàn thiện file readme.</t>
+    <t>Task 2: Quy trình cũ - Quy trình mới</t>
   </si>
   <si>
     <t>Hiếu</t>
@@ -63,16 +61,19 @@
     <t>https://github.com/nmcntt2-cntn2016/project2-DoTa</t>
   </si>
   <si>
-    <t>Task 3: Hoàn thiện poster. Làm demo sản phẩm</t>
+    <t>Task 3: Sản phẩm. Poster</t>
   </si>
   <si>
     <t>Quốc</t>
   </si>
   <si>
+    <t>Website: done 100%. Poster: Doing</t>
+  </si>
+  <si>
     <t>https://github.com/nmcntt2-cntn2016/project3-DoTa</t>
   </si>
   <si>
-    <t>Task 4: Bổ sun website: Các chức năng về kĩ thuật của trang web</t>
+    <t>Task 4: Liên hệ + Giải pháp kĩ thuật</t>
   </si>
   <si>
     <t>Nữ</t>
@@ -87,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -127,8 +128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +144,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -150,106 +166,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +205,64 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +464,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,17 +502,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +536,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,27 +564,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,128 +585,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,13 +1067,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="30.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="62.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="35.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="16.4285714285714" style="2" customWidth="1"/>
@@ -1150,32 +1151,32 @@
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9"/>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="13"/>
     </row>
